--- a/Shadow of Aral/Shadow of Aral - Image Files/Shadow of Aral - Game Objects Data.xlsx
+++ b/Shadow of Aral/Shadow of Aral - Image Files/Shadow of Aral - Game Objects Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMI\Desktop\Николай\Video Games Design\Games Designed\Shadow of Aral\Shadow of Aral - Image Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMI\Desktop\Николай\Video Games Design\Games Designed\Shadow-of-Aral\Shadow of Aral\Shadow of Aral - Image Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>MosinNagant</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Multi</t>
+  </si>
+  <si>
+    <t>Ammo Left</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -419,7 +422,7 @@
     <col min="9" max="9" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -442,10 +445,13 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -471,10 +477,13 @@
         <v>5</v>
       </c>
       <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -500,10 +509,13 @@
         <v>7</v>
       </c>
       <c r="I3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -529,6 +541,9 @@
         <v>47</v>
       </c>
       <c r="I4" s="1">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1">
         <v>550</v>
       </c>
     </row>
